--- a/AAII_Financials/Quarterly/SCPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>SCPS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,64 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -743,8 +750,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -772,8 +785,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,8 +820,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,37 +839,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>7300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,8 +905,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -883,11 +922,11 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -901,8 +940,14 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +975,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,37 +991,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>8600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -978,28 +1037,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-8600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,8 +1076,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1040,8 +1107,14 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1049,17 +1122,17 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-8600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1069,8 +1142,14 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1078,19 +1157,19 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1098,37 +1177,49 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-8700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1156,8 +1247,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1282,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-8700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1387,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1422,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1457,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,8 +1492,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1388,37 +1527,49 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-8700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1597,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-8700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1691,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,37 +1706,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1593,37 +1772,49 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1651,66 +1842,84 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F46" s="3">
-        <v>800</v>
       </c>
       <c r="G46" s="3">
         <v>1500</v>
       </c>
       <c r="H46" s="3">
+        <v>800</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1738,8 +1947,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1755,11 +1970,11 @@
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -1767,8 +1982,14 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1796,8 +2017,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +2052,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,8 +2087,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1883,8 +2122,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2157,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1200</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>800</v>
       </c>
       <c r="G54" s="3">
         <v>1500</v>
       </c>
       <c r="H54" s="3">
+        <v>800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J54" s="3">
         <v>1000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2211,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,8 +2226,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1978,17 +2239,17 @@
       <c r="E57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -1996,23 +2257,29 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2025,66 +2292,84 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2112,8 +2397,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2141,8 +2432,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2467,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2502,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2537,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2591,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2622,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2657,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2692,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2727,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-13500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1400</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2797,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2832,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2867,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2937,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-8700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,8 +3031,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2650,11 +3047,11 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -2665,8 +3062,14 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +3097,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +3132,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +3167,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +3202,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3237,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-700</v>
+        <v>-2800</v>
       </c>
       <c r="E89" s="3">
         <v>-900</v>
       </c>
       <c r="F89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H89" s="3">
         <v>-2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,8 +3291,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2863,14 +3304,14 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -2881,8 +3322,14 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3357,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,13 +3392,19 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -2953,11 +3412,11 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -2968,8 +3427,14 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3446,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3010,8 +3477,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3512,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3547,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,37 +3582,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3155,33 +3652,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>SCPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,68 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -756,8 +760,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -791,8 +798,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +836,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,43 +854,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E12" s="3">
         <v>1300</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>7300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,13 +928,16 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -928,8 +948,8 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -946,8 +966,11 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,8 +1004,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -993,43 +1019,47 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1037,34 +1067,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1078,8 +1111,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1113,8 +1147,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1122,20 +1159,20 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1148,8 +1185,11 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1163,16 +1203,16 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1183,43 +1223,49 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1253,8 +1299,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1288,78 +1337,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1393,8 +1451,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1428,8 +1489,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1527,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1498,8 +1565,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1533,43 +1603,49 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1603,83 +1679,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1693,8 +1778,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1708,43 +1794,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E41" s="3">
         <v>8300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1778,8 +1868,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1792,8 +1885,8 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -1802,19 +1895,22 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1848,78 +1944,87 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>800</v>
       </c>
       <c r="G45" s="3">
         <v>800</v>
       </c>
       <c r="H45" s="3">
+        <v>800</v>
+      </c>
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E46" s="3">
         <v>8600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1953,8 +2058,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1976,8 +2084,8 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -1988,8 +2096,11 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2023,8 +2134,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2058,8 +2172,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,8 +2210,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2128,8 +2248,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2163,43 +2286,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E54" s="3">
         <v>8600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2213,8 +2342,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2228,13 +2358,14 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>200</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>4</v>
@@ -2245,14 +2376,14 @@
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
@@ -2263,26 +2394,29 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2298,34 +2432,37 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>400</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>400</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
@@ -2333,34 +2470,37 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>3800</v>
       </c>
       <c r="F60" s="3">
         <v>3800</v>
       </c>
       <c r="G60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
+      <c r="K60" s="3">
+        <v>400</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
@@ -2368,8 +2508,11 @@
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2403,8 +2546,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2438,8 +2584,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2473,8 +2622,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2508,8 +2660,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2543,34 +2698,37 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3800</v>
       </c>
       <c r="F66" s="3">
         <v>3800</v>
       </c>
       <c r="G66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
+      <c r="K66" s="3">
+        <v>400</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
@@ -2578,8 +2736,11 @@
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2593,8 +2754,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2628,8 +2790,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2663,8 +2828,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2698,8 +2866,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2733,43 +2904,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2803,8 +2980,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2838,8 +3018,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2873,43 +3056,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2943,83 +3132,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3033,8 +3231,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3053,8 +3252,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -3068,8 +3267,11 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3305,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3138,8 +3343,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3173,8 +3381,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3208,8 +3419,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3243,43 +3457,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3293,8 +3513,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3310,11 +3531,11 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -3328,8 +3549,11 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3363,8 +3587,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3398,16 +3625,19 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3418,8 +3648,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -3433,8 +3663,11 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3448,8 +3681,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3483,8 +3717,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3518,8 +3755,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3553,8 +3793,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3588,43 +3831,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>9200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3658,39 +3907,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>6400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>SCPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,72 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -763,8 +767,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -801,8 +808,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +849,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,46 +868,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>13600</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F12" s="3">
         <v>1300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>7300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,16 +948,19 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -951,8 +971,8 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -969,8 +989,11 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,8 +1030,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,46 +1046,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>15300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1067,37 +1097,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,8 +1145,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1150,8 +1184,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1159,23 +1196,23 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1188,13 +1225,16 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
@@ -1206,16 +1246,16 @@
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1226,46 +1266,52 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1302,8 +1348,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1553,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,8 +1635,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1606,46 +1676,52 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,46 +1881,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E41" s="3">
         <v>6300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,8 +1961,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1888,8 +1981,8 @@
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -1898,19 +1991,22 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1947,84 +2043,93 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>800</v>
       </c>
       <c r="H45" s="3">
         <v>800</v>
       </c>
       <c r="I45" s="3">
+        <v>800</v>
+      </c>
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2061,8 +2166,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2087,8 +2195,8 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2099,8 +2207,11 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2137,8 +2248,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,8 +2330,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2251,8 +2371,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,46 +2412,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,17 +2489,18 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2379,14 +2510,14 @@
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
@@ -2397,29 +2528,32 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>2800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2435,37 +2569,40 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>5800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
-      </c>
-      <c r="J59" s="3">
-        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>400</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
@@ -2473,37 +2610,40 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>8800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3800</v>
       </c>
       <c r="G60" s="3">
         <v>3800</v>
       </c>
       <c r="H60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>400</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
+      <c r="L60" s="3">
+        <v>400</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
@@ -2511,8 +2651,11 @@
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2549,8 +2692,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2587,8 +2733,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,37 +2856,40 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
         <v>8800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>3800</v>
       </c>
       <c r="G66" s="3">
         <v>3800</v>
       </c>
       <c r="H66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>400</v>
       </c>
       <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
+      <c r="L66" s="3">
+        <v>400</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
@@ -2739,8 +2897,11 @@
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,8 +2996,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,46 +3078,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-33500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,46 +3242,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,8 +3430,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3255,8 +3454,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -3270,8 +3469,11 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3674,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,8 +3734,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3534,11 +3755,11 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -3552,8 +3773,11 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,19 +3855,22 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3651,8 +3881,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -3666,8 +3896,11 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,46 +4077,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>9200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3910,42 +4159,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>SCPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,75 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,8 +773,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -811,8 +817,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,8 +861,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -869,8 +881,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -878,40 +891,43 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>5500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>7300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
-      </c>
-      <c r="K12" s="3">
-        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,8 +967,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,11 +979,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>8100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -974,8 +993,8 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -992,8 +1011,11 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1033,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,49 +1072,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1097,40 +1126,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-15300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,8 +1178,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1155,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1187,8 +1220,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1196,26 +1232,26 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-15300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1228,16 +1264,19 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
@@ -1249,16 +1288,16 @@
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1269,49 +1308,55 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1351,8 +1396,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1440,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1556,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,8 +1704,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1647,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1679,49 +1748,55 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1836,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,49 +1967,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E41" s="3">
         <v>3600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,8 +2053,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1984,8 +2076,8 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -1994,19 +2086,22 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2046,90 +2141,99 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>800</v>
       </c>
       <c r="I45" s="3">
         <v>800</v>
       </c>
       <c r="J45" s="3">
+        <v>800</v>
+      </c>
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E46" s="3">
         <v>4000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2169,8 +2273,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2198,8 +2305,8 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2210,8 +2317,11 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2251,8 +2361,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,8 +2449,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2374,8 +2493,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,49 +2537,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,20 +2619,21 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2513,14 +2643,14 @@
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
@@ -2531,8 +2661,11 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2540,23 +2673,23 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>2800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2572,40 +2705,43 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
-      </c>
-      <c r="K59" s="3">
-        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>400</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
@@ -2613,40 +2749,43 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3800</v>
       </c>
       <c r="H60" s="3">
         <v>3800</v>
       </c>
       <c r="I60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
-      </c>
-      <c r="K60" s="3">
-        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
+      <c r="M60" s="3">
+        <v>400</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
@@ -2654,8 +2793,11 @@
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2695,8 +2837,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2736,8 +2881,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,40 +3013,43 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3800</v>
       </c>
       <c r="H66" s="3">
         <v>3800</v>
       </c>
       <c r="I66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>400</v>
       </c>
       <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
+      <c r="M66" s="3">
+        <v>400</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
@@ -2900,8 +3057,11 @@
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3040,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,49 +3251,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-34900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,49 +3427,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3515,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,8 +3628,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3457,8 +3655,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -3472,8 +3670,11 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +3890,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,13 +3954,14 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -3758,11 +3978,11 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -3776,8 +3996,11 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,22 +4084,25 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -3884,8 +4113,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -3899,8 +4128,11 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,49 +4322,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>9200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4162,45 +4410,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>SCPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,83 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,8 +784,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -820,8 +834,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,8 +884,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,52 +908,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>5500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,37 +1004,43 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>8100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1014,8 +1054,14 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1104,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,52 +1125,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F17" s="3">
         <v>6500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>15300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1126,43 +1186,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-15300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-8600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +1245,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1188,14 +1256,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1223,8 +1291,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1232,32 +1306,32 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-15300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-8600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1267,8 +1341,14 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1276,13 +1356,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1291,19 +1371,19 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1311,52 +1391,64 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-15600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-8700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1399,8 +1491,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1541,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-15600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-15600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1691,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1741,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1791,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,8 +1841,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1716,14 +1856,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1751,52 +1891,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-15600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1991,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-15600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2120,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,52 +2140,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F41" s="3">
         <v>7900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2056,52 +2236,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,96 +2336,114 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>400</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F46" s="3">
         <v>8200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>6800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>8600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K46" s="3">
-        <v>800</v>
       </c>
       <c r="L46" s="3">
         <v>1500</v>
       </c>
       <c r="M46" s="3">
+        <v>800</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,8 +2486,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2308,11 +2524,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2320,8 +2536,14 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2586,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2636,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2686,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2496,8 +2736,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2786,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F54" s="3">
         <v>8200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>800</v>
       </c>
       <c r="L54" s="3">
         <v>1500</v>
       </c>
       <c r="M54" s="3">
+        <v>800</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O54" s="3">
         <v>1000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2860,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,43 +2880,45 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
@@ -2664,38 +2926,44 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>2800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2708,96 +2976,114 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,8 +3126,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2884,8 +3176,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3226,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3276,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3326,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F66" s="3">
         <v>4200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3400,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3446,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3496,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3546,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3596,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-41500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-34900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-33500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-17900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-14500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1400</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3696,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3746,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3796,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F76" s="3">
         <v>4000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3896,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-15600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +4025,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3658,11 +4056,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -3673,8 +4071,14 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4121,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4171,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4221,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4271,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4321,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2800</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-700</v>
       </c>
       <c r="J89" s="3">
         <v>-900</v>
       </c>
       <c r="K89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M89" s="3">
         <v>-2100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,19 +4395,21 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -3981,14 +4423,14 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -3999,8 +4441,14 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4491,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,8 +4541,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4098,17 +4558,17 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -4116,11 +4576,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
@@ -4131,8 +4591,14 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4615,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4661,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4711,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4761,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,57 +4811,69 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>8500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>9200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4413,48 +4911,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F102" s="3">
         <v>4300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>6400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>SCPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,87 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -790,8 +794,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,8 +847,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,8 +900,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,58 +923,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>5500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>100</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
       </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>7300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
-      </c>
-      <c r="N12" s="3">
-        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,8 +1027,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1021,18 +1041,18 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>8100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1042,8 +1062,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1060,8 +1080,11 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1110,8 +1133,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1127,58 +1153,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1186,49 +1216,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1247,8 +1280,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1262,11 +1296,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1297,8 +1331,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,35 +1343,35 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-15300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1347,8 +1384,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1362,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
@@ -1377,16 +1417,16 @@
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1397,58 +1437,64 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1497,8 +1543,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1547,108 +1596,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1697,8 +1755,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1747,8 +1808,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1797,8 +1861,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1847,8 +1914,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1862,11 +1932,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1897,58 +1967,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1997,113 +2073,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2122,8 +2207,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2142,58 +2228,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2242,8 +2332,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2268,11 +2361,11 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2281,19 +2374,22 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2342,108 +2438,117 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>800</v>
       </c>
       <c r="L45" s="3">
         <v>800</v>
       </c>
       <c r="M45" s="3">
+        <v>800</v>
+      </c>
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2492,8 +2597,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2530,8 +2638,8 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -2542,8 +2650,11 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2592,8 +2703,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2642,8 +2756,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2692,8 +2809,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2742,8 +2862,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2792,58 +2915,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2862,8 +2991,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2882,29 +3012,30 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2914,14 +3045,14 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
@@ -2932,8 +3063,11 @@
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2943,30 +3077,30 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>2800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2982,49 +3116,52 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E59" s="3">
         <v>5400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
       </c>
       <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>400</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
@@ -3032,49 +3169,52 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3800</v>
       </c>
       <c r="K60" s="3">
         <v>3800</v>
       </c>
       <c r="L60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>400</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
+      <c r="P60" s="3">
+        <v>400</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
@@ -3082,8 +3222,11 @@
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3132,8 +3275,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3182,8 +3328,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3232,8 +3381,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3282,8 +3434,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3332,49 +3487,52 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E66" s="3">
         <v>5400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3800</v>
       </c>
       <c r="K66" s="3">
         <v>3800</v>
       </c>
       <c r="L66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>400</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
+      <c r="P66" s="3">
+        <v>400</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
@@ -3382,8 +3540,11 @@
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3402,8 +3563,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3452,8 +3614,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3502,8 +3667,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3552,8 +3720,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3602,58 +3773,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-49400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-46100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-41500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-34900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-33500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1400</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3702,8 +3879,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3752,8 +3932,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3802,58 +3985,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3902,113 +4091,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,8 +4225,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4062,8 +4261,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -4077,8 +4276,11 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4127,8 +4329,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4177,8 +4382,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4227,8 +4435,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4277,8 +4488,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4327,58 +4541,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4397,8 +4617,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4411,8 +4632,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -4429,11 +4650,11 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -4447,8 +4668,11 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4497,8 +4721,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4547,8 +4774,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4564,14 +4794,14 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4582,8 +4812,8 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
@@ -4597,8 +4827,11 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4617,8 +4850,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4667,8 +4901,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4717,8 +4954,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4767,8 +5007,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4817,8 +5060,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4829,55 +5075,58 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>8500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>9200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -4917,54 +5166,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>SCPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,94 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,8 +804,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -850,8 +863,14 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -903,8 +922,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,61 +949,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>700</v>
+      </c>
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>5500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>7300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1030,8 +1063,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1044,32 +1083,32 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>8100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1083,8 +1122,14 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,8 +1181,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1154,61 +1205,69 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>15300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1216,52 +1275,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-6500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-15300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-8600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1281,8 +1346,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1299,14 +1366,14 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1334,8 +1401,14 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1343,41 +1416,41 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-6500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-15300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-8600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1387,13 +1460,19 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1405,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
@@ -1420,19 +1499,19 @@
         <v>300</v>
       </c>
       <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1440,61 +1519,73 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-6500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-15600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-8700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,8 +1637,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1599,114 +1696,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-6500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-15600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-8700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-6500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-15600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-8700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1758,8 +1873,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1811,8 +1932,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1864,8 +1991,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1917,8 +2050,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1935,14 +2074,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1970,61 +2109,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-6500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-15600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-8700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2076,119 +2227,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-6500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-15600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-8700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2208,8 +2377,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2229,61 +2400,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>7900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2335,8 +2514,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2364,32 +2549,38 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2441,114 +2632,132 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>400</v>
       </c>
       <c r="K45" s="3">
+        <v>500</v>
+      </c>
+      <c r="L45" s="3">
+        <v>400</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>400</v>
+      </c>
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>8200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>8600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N46" s="3">
-        <v>800</v>
       </c>
       <c r="O46" s="3">
         <v>1500</v>
       </c>
       <c r="P46" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2600,8 +2809,14 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2641,11 +2856,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
@@ -2653,8 +2868,14 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2706,8 +2927,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2759,8 +2986,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2812,8 +3045,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2865,8 +3104,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2918,61 +3163,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>400</v>
+      </c>
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>800</v>
       </c>
       <c r="O54" s="3">
         <v>1500</v>
       </c>
       <c r="P54" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R54" s="3">
         <v>1000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2992,8 +3249,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3013,8 +3272,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3024,41 +3285,41 @@
       <c r="E57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
@@ -3066,8 +3327,14 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3080,33 +3347,33 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>2800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3119,114 +3386,132 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F59" s="3">
         <v>5900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F60" s="3">
         <v>5900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3278,8 +3563,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3331,8 +3622,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3384,8 +3681,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3437,8 +3740,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3490,61 +3799,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F66" s="3">
         <v>5900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3564,8 +3885,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3617,8 +3940,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3670,8 +3999,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3723,8 +4058,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3776,61 +4117,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-51300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-49400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-46100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-41500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-34900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-33500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-17900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-14500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-12300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3882,8 +4235,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3935,8 +4294,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3988,61 +4353,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-5500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4094,119 +4471,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-6500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-15600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-8700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4226,8 +4621,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4264,11 +4661,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
@@ -4279,8 +4676,14 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4332,8 +4735,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4385,8 +4794,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4438,8 +4853,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4491,8 +4912,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4544,61 +4971,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-4100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-700</v>
       </c>
       <c r="M89" s="3">
         <v>-900</v>
       </c>
       <c r="N89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P89" s="3">
         <v>-2100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4618,8 +5057,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4635,14 +5076,14 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -4653,14 +5094,14 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -4671,8 +5112,14 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4724,8 +5171,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4777,8 +5230,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4797,17 +5256,17 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4815,11 +5274,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
@@ -4830,8 +5289,14 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4851,8 +5316,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4904,8 +5371,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4957,8 +5430,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5010,8 +5489,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5063,61 +5548,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>8500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>9200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5125,14 +5622,14 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -5169,57 +5666,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-4000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>4300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>6400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
   <si>
     <t>SCPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,98 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -810,8 +814,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -869,8 +876,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -928,8 +938,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -951,67 +964,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>5500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
       <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
         <v>7300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
       </c>
       <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
       <c r="U12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,8 +1086,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1089,18 +1109,18 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>8100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1110,8 +1130,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1128,8 +1148,11 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,8 +1210,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,67 +1233,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1275,58 +1305,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,8 +1381,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1372,11 +1406,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1407,8 +1441,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1416,44 +1453,44 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-15300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1466,16 +1503,19 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1490,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
@@ -1505,16 +1545,16 @@
         <v>300</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1525,67 +1565,73 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1643,8 +1689,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1751,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,8 +1937,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1938,8 +1999,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2061,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,8 +2123,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2080,11 +2150,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2115,67 +2185,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2309,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2464,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,67 +2488,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2520,8 +2610,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2555,11 +2648,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2568,19 +2661,22 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2638,126 +2734,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>800</v>
       </c>
       <c r="O45" s="3">
         <v>800</v>
       </c>
       <c r="P45" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1600</v>
-      </c>
-      <c r="E46" s="3">
-        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>400</v>
       </c>
       <c r="G46" s="3">
+        <v>400</v>
+      </c>
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1000</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2815,8 +2920,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2862,8 +2970,8 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
@@ -2874,8 +2982,11 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2933,8 +3044,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3106,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,8 +3168,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3110,8 +3230,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3292,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1600</v>
-      </c>
-      <c r="E54" s="3">
-        <v>400</v>
       </c>
       <c r="F54" s="3">
         <v>400</v>
       </c>
       <c r="G54" s="3">
+        <v>400</v>
+      </c>
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3380,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,8 +3404,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3291,21 +3422,21 @@
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3315,14 +3446,14 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
@@ -3333,25 +3464,28 @@
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3360,23 +3494,23 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>2800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3392,58 +3526,61 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E59" s="3">
         <v>9300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>400</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
+      <c r="S59" s="3">
+        <v>400</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
@@ -3451,58 +3588,61 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
         <v>9300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>3800</v>
       </c>
       <c r="N60" s="3">
         <v>3800</v>
       </c>
       <c r="O60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P60" s="3">
         <v>3000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>400</v>
       </c>
       <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
+      <c r="S60" s="3">
+        <v>400</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>4</v>
@@ -3510,8 +3650,11 @@
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3569,8 +3712,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3628,8 +3774,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3836,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3898,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,58 +3960,61 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>8600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3800</v>
       </c>
       <c r="N66" s="3">
         <v>3800</v>
       </c>
       <c r="O66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>400</v>
       </c>
       <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
+      <c r="S66" s="3">
+        <v>400</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>4</v>
@@ -3864,8 +4022,11 @@
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4048,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4108,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4170,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4232,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,67 +4294,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-55500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-53100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-51300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-49400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-46100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-41500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-34900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-33500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1400</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4418,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4480,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4542,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>600</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4666,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,8 +4821,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4667,8 +4866,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
@@ -4682,8 +4881,11 @@
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4943,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5005,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5067,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5129,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5191,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,8 +5279,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5085,8 +5306,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -5100,11 +5321,11 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -5118,8 +5339,11 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5401,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,13 +5463,16 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5262,14 +5492,14 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5280,8 +5510,8 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
@@ -5295,8 +5525,11 @@
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,8 +5551,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5377,8 +5611,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5673,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5735,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,20 +5797,23 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5575,46 +5821,49 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>8500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>9200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5628,11 +5877,11 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -5672,63 +5921,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>SCPS</t>
   </si>
@@ -1573,8 +1573,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-2900</v>
       </c>
       <c r="E23" s="3">
         <v>-2700</v>
@@ -1759,8 +1759,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-2900</v>
       </c>
       <c r="E26" s="3">
         <v>-2700</v>
@@ -1821,8 +1821,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-2600</v>
       </c>
       <c r="E27" s="3">
         <v>-2400</v>
@@ -2193,8 +2193,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-2600</v>
       </c>
       <c r="E33" s="3">
         <v>-2400</v>
@@ -2317,8 +2317,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-2600</v>
       </c>
       <c r="E35" s="3">
         <v>-2400</v>
@@ -3596,8 +3596,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>11000</v>
       </c>
       <c r="E60" s="3">
         <v>9300</v>
@@ -3968,8 +3968,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>9900</v>
       </c>
       <c r="E66" s="3">
         <v>8600</v>
@@ -4551,7 +4551,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-10500</v>
+        <v>-9500</v>
       </c>
       <c r="E76" s="3">
         <v>-6900</v>
@@ -4741,8 +4741,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-2600</v>
       </c>
       <c r="E81" s="3">
         <v>-2400</v>
@@ -5471,8 +5471,8 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
